--- a/data/trans_orig/P6707-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6707-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE2F764A-00BF-4FF5-A0FB-DD1C7D027FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8403E4B0-075F-4EA2-AE31-48E3E17599CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5EA62F5D-E038-485D-A437-9B822B207148}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8FA95C89-9967-4D8F-8229-90C2DDC006CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="795">
   <si>
     <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2012 (Tasa respuesta: 33,64%)</t>
   </si>
@@ -76,2374 +76,2353 @@
     <t>27,34%</t>
   </si>
   <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
   </si>
   <si>
     <t>23,38%</t>
   </si>
   <si>
-    <t>15,19%</t>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2023 (Tasa respuesta: 10,35%)</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
   </si>
   <si>
     <t>33,1%</t>
   </si>
   <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
   </si>
   <si>
     <t>28,8%</t>
   </si>
   <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
   </si>
   <si>
     <t>16,97%</t>
   </si>
   <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
     <t>17,39%</t>
   </si>
   <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2023 (Tasa respuesta: 10,35%)</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>14,12%</t>
   </si>
 </sst>
 </file>
@@ -2855,7 +2834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8084C3-156B-49F5-8ED2-134706FB6E67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC51AD76-0416-4CE4-B7AB-84CD4104D7A2}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3341,10 +3320,10 @@
         <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -3353,13 +3332,13 @@
         <v>32240</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -3368,13 +3347,13 @@
         <v>58839</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3368,13 @@
         <v>96368</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>54</v>
@@ -3404,13 +3383,13 @@
         <v>58741</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>149</v>
@@ -3419,13 +3398,13 @@
         <v>155108</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3419,13 @@
         <v>79923</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -3455,13 +3434,13 @@
         <v>48728</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
@@ -3470,13 +3449,13 @@
         <v>128651</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3470,13 @@
         <v>115913</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -3506,13 +3485,13 @@
         <v>74021</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>177</v>
@@ -3521,13 +3500,13 @@
         <v>189934</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,7 +3562,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3595,13 +3574,13 @@
         <v>57163</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -3610,13 +3589,13 @@
         <v>47064</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -3625,13 +3604,13 @@
         <v>104228</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3625,13 @@
         <v>48522</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -3661,13 +3640,13 @@
         <v>31786</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
@@ -3676,13 +3655,13 @@
         <v>80308</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3676,13 @@
         <v>95423</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>63</v>
@@ -3712,13 +3691,13 @@
         <v>65646</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>158</v>
@@ -3727,13 +3706,13 @@
         <v>161069</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3727,13 @@
         <v>87695</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
@@ -3766,10 +3745,10 @@
         <v>68</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>137</v>
@@ -3778,13 +3757,13 @@
         <v>140874</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3778,13 @@
         <v>132293</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>79</v>
@@ -3814,13 +3793,13 @@
         <v>83503</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>205</v>
@@ -3829,13 +3808,13 @@
         <v>215796</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,7 +3870,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3903,13 +3882,13 @@
         <v>58127</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -3918,13 +3897,13 @@
         <v>42830</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -3933,13 +3912,13 @@
         <v>100958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3933,13 @@
         <v>25193</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -3969,13 +3948,13 @@
         <v>16045</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>38</v>
@@ -3984,13 +3963,13 @@
         <v>41239</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +3984,13 @@
         <v>75825</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>39</v>
@@ -4020,13 +3999,13 @@
         <v>46049</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>107</v>
@@ -4035,13 +4014,13 @@
         <v>121874</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4035,13 @@
         <v>87631</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -4071,13 +4050,13 @@
         <v>45880</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>115</v>
@@ -4086,13 +4065,13 @@
         <v>133511</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4086,13 @@
         <v>118815</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>61</v>
@@ -4122,13 +4101,13 @@
         <v>72393</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>168</v>
@@ -4137,13 +4116,13 @@
         <v>191209</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,7 +4178,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4211,13 +4190,13 @@
         <v>14166</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -4226,13 +4205,13 @@
         <v>10559</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -4241,13 +4220,13 @@
         <v>24726</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,13 +4241,13 @@
         <v>10310</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4277,13 +4256,13 @@
         <v>2119</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -4292,13 +4271,13 @@
         <v>12429</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,13 +4292,13 @@
         <v>29837</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -4328,13 +4307,13 @@
         <v>12583</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -4343,13 +4322,13 @@
         <v>42420</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4343,13 @@
         <v>30986</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -4379,13 +4358,13 @@
         <v>14573</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>43</v>
@@ -4394,13 +4373,13 @@
         <v>45559</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4394,13 @@
         <v>72052</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -4430,13 +4409,13 @@
         <v>28748</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>94</v>
@@ -4445,13 +4424,13 @@
         <v>100800</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,7 +4486,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4519,13 +4498,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4534,13 +4513,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4549,13 +4528,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,13 +4549,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -4585,13 +4564,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -4600,13 +4579,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4600,13 @@
         <v>1000</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -4636,13 +4615,13 @@
         <v>891</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -4651,13 +4630,13 @@
         <v>1890</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,13 +4651,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -4687,13 +4666,13 @@
         <v>967</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -4702,13 +4681,13 @@
         <v>967</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,13 +4702,13 @@
         <v>2016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -4738,13 +4717,13 @@
         <v>981</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -4753,10 +4732,10 @@
         <v>2997</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>251</v>
+        <v>52</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>252</v>
@@ -4827,13 +4806,13 @@
         <v>215746</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H40" s="7">
         <v>168</v>
@@ -4842,13 +4821,13 @@
         <v>180848</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M40" s="7">
         <v>362</v>
@@ -4857,13 +4836,13 @@
         <v>396593</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,13 +4857,13 @@
         <v>118763</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H41" s="7">
         <v>85</v>
@@ -4893,13 +4872,13 @@
         <v>87947</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M41" s="7">
         <v>195</v>
@@ -4908,13 +4887,13 @@
         <v>206710</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,10 +4962,10 @@
         <v>278</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>47</v>
+        <v>279</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="H43" s="7">
         <v>170</v>
@@ -4995,13 +4974,13 @@
         <v>183559</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M43" s="7">
         <v>454</v>
@@ -5010,13 +4989,13 @@
         <v>481526</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>126</v>
+        <v>285</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,13 +5010,13 @@
         <v>462419</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H44" s="7">
         <v>258</v>
@@ -5046,13 +5025,13 @@
         <v>284575</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M44" s="7">
         <v>691</v>
@@ -5061,13 +5040,13 @@
         <v>746994</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>223</v>
+        <v>293</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,7 +5102,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -5145,7 +5124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E41A9B9-8D8F-49A9-9052-F0A87161660B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31963F19-9EC9-47B5-9766-C28047FC9FBF}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5162,7 +5141,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5269,13 +5248,13 @@
         <v>21578</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -5284,13 +5263,13 @@
         <v>14303</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -5299,13 +5278,13 @@
         <v>35881</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5299,13 @@
         <v>14148</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -5335,13 +5314,13 @@
         <v>14557</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>311</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -5350,13 +5329,13 @@
         <v>28705</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>73</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,13 +5350,13 @@
         <v>21415</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>145</v>
+        <v>315</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -5386,13 +5365,13 @@
         <v>21931</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -5401,13 +5380,13 @@
         <v>43346</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,13 +5401,13 @@
         <v>14595</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>318</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5437,13 +5416,13 @@
         <v>23967</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -5452,13 +5431,13 @@
         <v>38562</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,13 +5452,13 @@
         <v>7374</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>333</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -5488,13 +5467,13 @@
         <v>17096</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -5503,13 +5482,13 @@
         <v>24470</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5556,13 @@
         <v>67631</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -5592,13 +5571,13 @@
         <v>58631</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>124</v>
@@ -5607,13 +5586,13 @@
         <v>126262</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5607,13 @@
         <v>52818</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -5643,13 +5622,13 @@
         <v>36514</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>12</v>
+        <v>353</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
@@ -5658,13 +5637,13 @@
         <v>89332</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,13 +5658,13 @@
         <v>97002</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>353</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H12" s="7">
         <v>90</v>
@@ -5694,13 +5673,13 @@
         <v>85637</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M12" s="7">
         <v>182</v>
@@ -5709,13 +5688,13 @@
         <v>182639</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,13 +5709,13 @@
         <v>66673</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -5745,13 +5724,13 @@
         <v>49168</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>117</v>
@@ -5760,13 +5739,13 @@
         <v>115841</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>368</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,13 +5760,13 @@
         <v>60061</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>372</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -5796,7 +5775,7 @@
         <v>43767</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>373</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>374</v>
@@ -5814,10 +5793,10 @@
         <v>376</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>122</v>
+        <v>377</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,7 +5852,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5885,13 +5864,13 @@
         <v>79345</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -5900,13 +5879,13 @@
         <v>64133</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>140</v>
@@ -5915,13 +5894,13 @@
         <v>143479</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>383</v>
+        <v>23</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,7 +5921,7 @@
         <v>387</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>156</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -5951,13 +5930,13 @@
         <v>39869</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
         <v>117</v>
@@ -5966,13 +5945,13 @@
         <v>118301</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +5966,13 @@
         <v>127567</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H18" s="7">
         <v>79</v>
@@ -6002,13 +5981,13 @@
         <v>76622</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M18" s="7">
         <v>197</v>
@@ -6017,13 +5996,13 @@
         <v>204188</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>81</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6017,13 @@
         <v>92440</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
@@ -6053,13 +6032,13 @@
         <v>74510</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>164</v>
@@ -6068,13 +6047,13 @@
         <v>166950</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6068,13 @@
         <v>81804</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>61</v>
@@ -6104,13 +6083,13 @@
         <v>62280</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>340</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -6119,13 +6098,13 @@
         <v>144084</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,7 +6160,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6196,10 +6175,10 @@
         <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>223</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -6259,13 +6238,13 @@
         <v>33926</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>155</v>
+        <v>428</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M23" s="7">
         <v>79</v>
@@ -6274,13 +6253,13 @@
         <v>87774</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>322</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6274,13 @@
         <v>91426</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>433</v>
+        <v>55</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>434</v>
+        <v>294</v>
       </c>
       <c r="H24" s="7">
         <v>61</v>
@@ -6313,10 +6292,10 @@
         <v>435</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M24" s="7">
         <v>143</v>
@@ -6349,10 +6328,10 @@
         <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>12</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -6361,13 +6340,13 @@
         <v>48520</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>444</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>120</v>
@@ -6376,13 +6355,13 @@
         <v>131009</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,13 +6376,13 @@
         <v>78541</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>258</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H26" s="7">
         <v>39</v>
@@ -6412,13 +6391,13 @@
         <v>42654</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>353</v>
+        <v>453</v>
       </c>
       <c r="M26" s="7">
         <v>110</v>
@@ -6427,13 +6406,13 @@
         <v>121195</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>52</v>
+        <v>455</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,7 +6468,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6501,13 +6480,13 @@
         <v>30789</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -6516,13 +6495,13 @@
         <v>22654</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M28" s="7">
         <v>45</v>
@@ -6531,13 +6510,13 @@
         <v>53443</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>103</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,13 +6531,13 @@
         <v>21103</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -6567,13 +6546,13 @@
         <v>18693</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>469</v>
       </c>
       <c r="M29" s="7">
         <v>34</v>
@@ -6582,13 +6561,13 @@
         <v>39796</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,13 +6582,13 @@
         <v>43413</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>146</v>
+        <v>475</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -6618,13 +6597,13 @@
         <v>23602</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>365</v>
+        <v>477</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="M30" s="7">
         <v>58</v>
@@ -6633,13 +6612,13 @@
         <v>67014</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,13 +6633,13 @@
         <v>26719</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="H31" s="7">
         <v>21</v>
@@ -6669,13 +6648,13 @@
         <v>24600</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="M31" s="7">
         <v>45</v>
@@ -6684,13 +6663,13 @@
         <v>51319</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>482</v>
+        <v>279</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>413</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,13 +6684,13 @@
         <v>43702</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
@@ -6720,13 +6699,13 @@
         <v>16330</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
@@ -6735,13 +6714,13 @@
         <v>60032</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>491</v>
+        <v>111</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>492</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,7 +6776,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6809,13 +6788,13 @@
         <v>934</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>336</v>
+        <v>496</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6824,13 +6803,13 @@
         <v>1020</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -6839,13 +6818,13 @@
         <v>1954</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6860,13 +6839,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -6875,13 +6854,13 @@
         <v>1183</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6890,13 +6869,13 @@
         <v>1183</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>499</v>
+        <v>323</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6911,13 +6890,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>501</v>
+        <v>333</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6926,13 +6905,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6941,13 +6920,13 @@
         <v>1050</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,13 +6941,13 @@
         <v>1819</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6977,13 +6956,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -6992,13 +6971,13 @@
         <v>1819</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7013,13 +6992,13 @@
         <v>2182</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>509</v>
+        <v>360</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -7028,13 +7007,13 @@
         <v>2987</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>512</v>
+        <v>208</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -7123,7 +7102,7 @@
         <v>517</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>341</v>
+        <v>172</v>
       </c>
       <c r="H40" s="7">
         <v>206</v>
@@ -7132,7 +7111,7 @@
         <v>213928</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>518</v>
@@ -7153,7 +7132,7 @@
         <v>521</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>522</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7168,13 +7147,13 @@
         <v>220350</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>119</v>
+        <v>522</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>523</v>
+        <v>387</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="H41" s="7">
         <v>141</v>
@@ -7183,13 +7162,13 @@
         <v>144741</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="M41" s="7">
         <v>348</v>
@@ -7198,13 +7177,13 @@
         <v>365091</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P41" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7219,13 +7198,13 @@
         <v>381873</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>170</v>
+        <v>528</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H42" s="7">
         <v>273</v>
@@ -7234,13 +7213,13 @@
         <v>272623</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M42" s="7">
         <v>624</v>
@@ -7249,13 +7228,13 @@
         <v>654496</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7270,10 +7249,10 @@
         <v>284734</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>538</v>
@@ -7288,10 +7267,10 @@
         <v>539</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>217</v>
+        <v>540</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>540</v>
+        <v>318</v>
       </c>
       <c r="M43" s="7">
         <v>487</v>
@@ -7303,10 +7282,10 @@
         <v>541</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>422</v>
+        <v>542</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7321,13 +7300,13 @@
         <v>273663</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>447</v>
+        <v>546</v>
       </c>
       <c r="H44" s="7">
         <v>177</v>
@@ -7336,13 +7315,13 @@
         <v>185115</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M44" s="7">
         <v>430</v>
@@ -7351,10 +7330,10 @@
         <v>458778</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>548</v>
+        <v>126</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>549</v>
+        <v>386</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>550</v>
@@ -7413,7 +7392,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -7435,7 +7414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED396BFF-B294-4435-AD0C-11553797D1EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919DD784-32A3-432C-935D-3B844554577D}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7592,10 +7571,10 @@
         <v>558</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7610,13 +7589,13 @@
         <v>2792</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -7625,7 +7604,7 @@
         <v>3751</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>451</v>
+        <v>562</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>563</v>
@@ -7676,13 +7655,13 @@
         <v>5437</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -7691,13 +7670,13 @@
         <v>10654</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7712,13 +7691,13 @@
         <v>1537</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -7727,13 +7706,13 @@
         <v>2809</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -7742,13 +7721,13 @@
         <v>4347</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>95</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,13 +7742,13 @@
         <v>5001</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>283</v>
+        <v>584</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -7778,13 +7757,13 @@
         <v>6979</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -7793,13 +7772,13 @@
         <v>11981</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7867,13 +7846,13 @@
         <v>22643</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -7882,13 +7861,13 @@
         <v>30529</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>413</v>
+        <v>596</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -7897,13 +7876,13 @@
         <v>53172</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,13 +7897,13 @@
         <v>20360</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -7933,13 +7912,13 @@
         <v>16983</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>78</v>
+        <v>605</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -7948,13 +7927,13 @@
         <v>37343</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>417</v>
+        <v>607</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7969,13 +7948,13 @@
         <v>31889</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>127</v>
+        <v>608</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>609</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -7984,13 +7963,13 @@
         <v>19785</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>48</v>
+        <v>373</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -7999,13 +7978,13 @@
         <v>51674</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8020,13 +7999,13 @@
         <v>17079</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>463</v>
+        <v>616</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -8035,13 +8014,13 @@
         <v>15672</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>618</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>609</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -8050,13 +8029,13 @@
         <v>32752</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>613</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8071,13 +8050,13 @@
         <v>18772</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -8086,13 +8065,13 @@
         <v>7276</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>521</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -8101,13 +8080,13 @@
         <v>26048</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>369</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8163,7 +8142,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8175,13 +8154,13 @@
         <v>23412</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>480</v>
+        <v>629</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -8190,13 +8169,13 @@
         <v>32257</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -8205,13 +8184,13 @@
         <v>55669</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>625</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>626</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8226,13 +8205,13 @@
         <v>6770</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -8241,13 +8220,13 @@
         <v>14966</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>631</v>
+        <v>168</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>638</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -8256,13 +8235,13 @@
         <v>21736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>24</v>
+        <v>640</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8277,13 +8256,13 @@
         <v>31563</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>55</v>
+        <v>643</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -8292,13 +8271,13 @@
         <v>17856</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>537</v>
+        <v>441</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -8307,13 +8286,13 @@
         <v>49419</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>638</v>
+        <v>311</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8328,13 +8307,13 @@
         <v>23636</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -8343,13 +8322,13 @@
         <v>15298</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>372</v>
+        <v>653</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -8358,13 +8337,13 @@
         <v>38934</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>645</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8379,13 +8358,13 @@
         <v>23069</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>657</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -8394,13 +8373,13 @@
         <v>19517</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="M20" s="7">
         <v>49</v>
@@ -8409,13 +8388,13 @@
         <v>42586</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>654</v>
+        <v>301</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>663</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8471,7 +8450,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8483,13 +8462,13 @@
         <v>86645</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>656</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -8498,13 +8477,13 @@
         <v>39164</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>443</v>
+        <v>667</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -8513,13 +8492,13 @@
         <v>125808</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8534,13 +8513,13 @@
         <v>14448</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>663</v>
+        <v>75</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -8549,13 +8528,13 @@
         <v>9196</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>675</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="M23" s="7">
         <v>29</v>
@@ -8564,13 +8543,13 @@
         <v>23644</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8585,13 +8564,13 @@
         <v>32354</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>310</v>
+        <v>680</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="H24" s="7">
         <v>54</v>
@@ -8600,13 +8579,13 @@
         <v>32802</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>436</v>
+        <v>684</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="M24" s="7">
         <v>88</v>
@@ -8615,13 +8594,13 @@
         <v>65157</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8636,13 +8615,13 @@
         <v>19266</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>680</v>
+        <v>254</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -8651,13 +8630,13 @@
         <v>19168</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>683</v>
+        <v>102</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -8666,13 +8645,13 @@
         <v>38434</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8687,13 +8666,13 @@
         <v>28628</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>686</v>
+        <v>641</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -8702,13 +8681,13 @@
         <v>20349</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>691</v>
+        <v>97</v>
       </c>
       <c r="M26" s="7">
         <v>58</v>
@@ -8717,13 +8696,13 @@
         <v>48977</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>692</v>
+        <v>203</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>338</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8779,7 +8758,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8791,13 +8770,13 @@
         <v>17628</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>415</v>
+        <v>702</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -8806,13 +8785,13 @@
         <v>11692</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -8821,13 +8800,13 @@
         <v>29320</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>700</v>
+        <v>364</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8842,13 +8821,13 @@
         <v>4582</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -8857,13 +8836,13 @@
         <v>6567</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>402</v>
+        <v>712</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -8872,13 +8851,13 @@
         <v>11149</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8893,13 +8872,13 @@
         <v>19790</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>710</v>
+        <v>571</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -8908,13 +8887,13 @@
         <v>9988</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
@@ -8923,13 +8902,13 @@
         <v>29778</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>67</v>
+        <v>228</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>276</v>
+        <v>722</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8944,13 +8923,13 @@
         <v>14690</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -8959,13 +8938,13 @@
         <v>4644</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>719</v>
+        <v>79</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>603</v>
+        <v>728</v>
       </c>
       <c r="M31" s="7">
         <v>27</v>
@@ -8974,13 +8953,13 @@
         <v>19334</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8995,13 +8974,13 @@
         <v>12646</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>725</v>
+        <v>468</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -9010,13 +8989,13 @@
         <v>7173</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>728</v>
+        <v>352</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="M32" s="7">
         <v>25</v>
@@ -9025,13 +9004,13 @@
         <v>19819</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>697</v>
+        <v>609</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>129</v>
+        <v>737</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9087,7 +9066,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9099,13 +9078,13 @@
         <v>607</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -9114,13 +9093,13 @@
         <v>2146</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>733</v>
+        <v>103</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>734</v>
+        <v>429</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -9129,13 +9108,13 @@
         <v>2753</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9150,13 +9129,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -9165,13 +9144,13 @@
         <v>1229</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -9180,13 +9159,13 @@
         <v>1229</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>741</v>
+        <v>313</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9201,13 +9180,13 @@
         <v>693</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -9216,13 +9195,13 @@
         <v>1399</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>745</v>
+        <v>546</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -9231,13 +9210,13 @@
         <v>2092</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9252,13 +9231,13 @@
         <v>717</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9267,13 +9246,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -9282,13 +9261,13 @@
         <v>717</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9303,13 +9282,13 @@
         <v>2443</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>756</v>
+        <v>570</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>89</v>
+        <v>420</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -9318,13 +9297,13 @@
         <v>1688</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -9333,13 +9312,13 @@
         <v>4131</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9407,13 +9386,13 @@
         <v>158971</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="H40" s="7">
         <v>158</v>
@@ -9422,13 +9401,13 @@
         <v>125553</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="M40" s="7">
         <v>249</v>
@@ -9437,13 +9416,13 @@
         <v>284524</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>769</v>
+        <v>478</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9458,13 +9437,13 @@
         <v>48952</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>774</v>
+        <v>368</v>
       </c>
       <c r="H41" s="7">
         <v>67</v>
@@ -9473,13 +9452,13 @@
         <v>52692</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>218</v>
+        <v>775</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>776</v>
+        <v>34</v>
       </c>
       <c r="M41" s="7">
         <v>107</v>
@@ -9509,13 +9488,13 @@
         <v>121506</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>781</v>
-      </c>
       <c r="G42" s="7" t="s">
-        <v>782</v>
+        <v>735</v>
       </c>
       <c r="H42" s="7">
         <v>122</v>
@@ -9524,13 +9503,13 @@
         <v>87268</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>783</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>784</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>785</v>
       </c>
       <c r="M42" s="7">
         <v>234</v>
@@ -9539,13 +9518,13 @@
         <v>208773</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>786</v>
+        <v>347</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>787</v>
+        <v>480</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>441</v>
+        <v>784</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9560,13 +9539,13 @@
         <v>76926</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>788</v>
+        <v>423</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>789</v>
+        <v>201</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>790</v>
+        <v>537</v>
       </c>
       <c r="H43" s="7">
         <v>82</v>
@@ -9575,13 +9554,13 @@
         <v>57591</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>792</v>
+        <v>153</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>680</v>
+        <v>763</v>
       </c>
       <c r="M43" s="7">
         <v>157</v>
@@ -9590,13 +9569,13 @@
         <v>134517</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>636</v>
+        <v>786</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9611,13 +9590,13 @@
         <v>90559</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>796</v>
+        <v>568</v>
       </c>
       <c r="H44" s="7">
         <v>80</v>
@@ -9626,13 +9605,13 @@
         <v>62983</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="M44" s="7">
         <v>158</v>
@@ -9641,13 +9620,13 @@
         <v>153542</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>172</v>
+        <v>793</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>801</v>
+        <v>574</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9703,7 +9682,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6707-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6707-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8403E4B0-075F-4EA2-AE31-48E3E17599CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D1B31B7-D5A9-4DA0-BD01-E4E00730ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8FA95C89-9967-4D8F-8229-90C2DDC006CD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F6995ECC-B7D5-4F32-8C34-F4A17852AA92}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="807">
   <si>
     <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2012 (Tasa respuesta: 33,64%)</t>
   </si>
@@ -76,2326 +76,2362 @@
     <t>27,34%</t>
   </si>
   <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
     <t>16,71%</t>
   </si>
   <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
   </si>
   <si>
     <t>33,06%</t>
   </si>
   <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2023 (Tasa respuesta: 10,35%)</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
   </si>
   <si>
     <t>11,59%</t>
   </si>
   <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>15,9%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>12,09%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2023 (Tasa respuesta: 10,35%)</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
   </si>
   <si>
     <t>12,13%</t>
@@ -2834,7 +2870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC51AD76-0416-4CE4-B7AB-84CD4104D7A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B777706C-9984-458A-8C9B-930E96A7B5E1}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3628,10 +3664,10 @@
         <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -3640,13 +3676,13 @@
         <v>31786</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
@@ -3655,13 +3691,13 @@
         <v>80308</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,10 +3781,10 @@
         <v>68</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>137</v>
@@ -3757,13 +3793,13 @@
         <v>140874</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3814,13 @@
         <v>132293</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>79</v>
@@ -3793,13 +3829,13 @@
         <v>83503</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>205</v>
@@ -3808,13 +3844,13 @@
         <v>215796</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,7 +3906,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3882,13 +3918,13 @@
         <v>58127</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -3897,13 +3933,13 @@
         <v>42830</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -3912,7 +3948,7 @@
         <v>100958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>158</v>
@@ -4017,10 +4053,10 @@
         <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +4071,13 @@
         <v>87631</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -4050,13 +4086,13 @@
         <v>45880</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>115</v>
@@ -4065,13 +4101,13 @@
         <v>133511</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4122,13 @@
         <v>118815</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>61</v>
@@ -4101,13 +4137,13 @@
         <v>72393</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>168</v>
@@ -4116,13 +4152,13 @@
         <v>191209</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,7 +4214,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4190,13 +4226,13 @@
         <v>14166</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -4205,13 +4241,13 @@
         <v>10559</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -4223,10 +4259,10 @@
         <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4277,13 @@
         <v>10310</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4256,13 +4292,13 @@
         <v>2119</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -4271,13 +4307,13 @@
         <v>12429</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,10 +4346,10 @@
         <v>215</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -4322,13 +4358,13 @@
         <v>42420</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4379,13 @@
         <v>30986</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -4358,13 +4394,13 @@
         <v>14573</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>43</v>
@@ -4373,13 +4409,13 @@
         <v>45559</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4430,13 @@
         <v>72052</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -4409,13 +4445,13 @@
         <v>28748</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>94</v>
@@ -4424,13 +4460,13 @@
         <v>100800</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,7 +4522,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4498,13 +4534,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4513,13 +4549,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4528,13 +4564,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4585,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -4564,13 +4600,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -4579,13 +4615,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4636,13 @@
         <v>1000</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -4615,13 +4651,13 @@
         <v>891</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -4630,13 +4666,13 @@
         <v>1890</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -4666,13 +4702,13 @@
         <v>967</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -4681,10 +4717,10 @@
         <v>967</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>248</v>
@@ -4705,10 +4741,10 @@
         <v>249</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -4720,10 +4756,10 @@
         <v>250</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -4735,10 +4771,10 @@
         <v>251</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>52</v>
+        <v>252</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4842,13 @@
         <v>215746</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H40" s="7">
         <v>168</v>
@@ -4821,13 +4857,13 @@
         <v>180848</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M40" s="7">
         <v>362</v>
@@ -4836,13 +4872,13 @@
         <v>396593</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,13 +4893,13 @@
         <v>118763</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H41" s="7">
         <v>85</v>
@@ -4872,13 +4908,13 @@
         <v>87947</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M41" s="7">
         <v>195</v>
@@ -4887,13 +4923,13 @@
         <v>206710</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,13 +4944,13 @@
         <v>316768</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H42" s="7">
         <v>183</v>
@@ -4923,13 +4959,13 @@
         <v>198789</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M42" s="7">
         <v>487</v>
@@ -4938,13 +4974,13 @@
         <v>515557</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4995,13 @@
         <v>297967</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H43" s="7">
         <v>170</v>
@@ -4974,13 +5010,13 @@
         <v>183559</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="M43" s="7">
         <v>454</v>
@@ -5124,7 +5160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31963F19-9EC9-47B5-9766-C28047FC9FBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7BB96E-AB53-474C-8F4D-1AB0F51786AA}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5302,10 +5338,10 @@
         <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -5314,13 +5350,13 @@
         <v>14557</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>311</v>
+        <v>17</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -5383,10 +5419,10 @@
         <v>321</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>221</v>
+        <v>322</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,13 +5437,13 @@
         <v>14595</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5416,13 +5452,13 @@
         <v>23967</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -5431,13 +5467,13 @@
         <v>38562</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +5488,13 @@
         <v>7374</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -5467,13 +5503,13 @@
         <v>17096</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -5482,13 +5518,13 @@
         <v>24470</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5592,13 @@
         <v>67631</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -5571,13 +5607,13 @@
         <v>58631</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>124</v>
@@ -5586,13 +5622,13 @@
         <v>126262</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>345</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5643,13 @@
         <v>52818</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -5622,13 +5658,13 @@
         <v>36514</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
@@ -5637,13 +5673,13 @@
         <v>89332</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5694,13 @@
         <v>97002</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>360</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H12" s="7">
         <v>90</v>
@@ -5673,13 +5709,13 @@
         <v>85637</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>359</v>
+        <v>200</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M12" s="7">
         <v>182</v>
@@ -5688,13 +5724,13 @@
         <v>182639</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5745,13 @@
         <v>66673</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -5724,13 +5760,13 @@
         <v>49168</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M13" s="7">
         <v>117</v>
@@ -5739,13 +5775,13 @@
         <v>115841</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>152</v>
+        <v>372</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5796,13 @@
         <v>60061</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -5775,13 +5811,13 @@
         <v>43767</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>376</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>99</v>
@@ -5790,13 +5826,13 @@
         <v>103828</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5900,13 @@
         <v>79345</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>380</v>
+        <v>29</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -5879,13 +5915,13 @@
         <v>64133</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>140</v>
@@ -5894,13 +5930,13 @@
         <v>143479</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>23</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>272</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5951,13 @@
         <v>78432</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -5930,13 +5966,13 @@
         <v>39869</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>211</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>117</v>
@@ -5945,13 +5981,13 @@
         <v>118301</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +6002,13 @@
         <v>127567</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H18" s="7">
         <v>79</v>
@@ -5981,13 +6017,13 @@
         <v>76622</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M18" s="7">
         <v>197</v>
@@ -5996,13 +6032,13 @@
         <v>204188</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>401</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6053,13 @@
         <v>92440</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
@@ -6032,13 +6068,13 @@
         <v>74510</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="M19" s="7">
         <v>164</v>
@@ -6047,13 +6083,13 @@
         <v>166950</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6104,13 @@
         <v>81804</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>61</v>
@@ -6083,13 +6119,13 @@
         <v>62280</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>340</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -6098,13 +6134,13 @@
         <v>144084</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,7 +6196,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6175,10 +6211,10 @@
         <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>223</v>
+        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -6187,13 +6223,13 @@
         <v>53186</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>102</v>
@@ -6202,13 +6238,13 @@
         <v>114611</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6259,13 @@
         <v>53849</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>427</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -6238,13 +6274,13 @@
         <v>33926</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>428</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M23" s="7">
         <v>79</v>
@@ -6253,13 +6289,13 @@
         <v>87774</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>431</v>
+        <v>38</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6310,13 @@
         <v>91426</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>294</v>
+        <v>435</v>
       </c>
       <c r="H24" s="7">
         <v>61</v>
@@ -6289,13 +6325,13 @@
         <v>64832</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>58</v>
+        <v>437</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M24" s="7">
         <v>143</v>
@@ -6304,13 +6340,13 @@
         <v>156258</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6361,13 @@
         <v>82488</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>315</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -6343,10 +6379,10 @@
         <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>120</v>
@@ -6355,13 +6391,13 @@
         <v>131009</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,10 +6412,10 @@
         <v>78541</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>450</v>
@@ -6412,7 +6448,7 @@
         <v>455</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>14</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,7 +6504,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6480,13 +6516,13 @@
         <v>30789</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -6495,13 +6531,13 @@
         <v>22654</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M28" s="7">
         <v>45</v>
@@ -6510,13 +6546,13 @@
         <v>53443</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,13 +6567,13 @@
         <v>21103</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>392</v>
+        <v>466</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -6546,13 +6582,13 @@
         <v>18693</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M29" s="7">
         <v>34</v>
@@ -6561,13 +6597,13 @@
         <v>39796</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,13 +6618,13 @@
         <v>43413</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -6597,13 +6633,13 @@
         <v>23602</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M30" s="7">
         <v>58</v>
@@ -6612,13 +6648,13 @@
         <v>67014</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,13 +6669,13 @@
         <v>26719</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H31" s="7">
         <v>21</v>
@@ -6648,13 +6684,13 @@
         <v>24600</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="M31" s="7">
         <v>45</v>
@@ -6663,13 +6699,13 @@
         <v>51319</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>279</v>
+        <v>490</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6684,13 +6720,13 @@
         <v>43702</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>491</v>
+        <v>295</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
@@ -6699,13 +6735,13 @@
         <v>16330</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
@@ -6714,13 +6750,13 @@
         <v>60032</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>111</v>
+        <v>499</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>101</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6776,7 +6812,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6788,13 +6824,13 @@
         <v>934</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6803,13 +6839,13 @@
         <v>1020</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -6818,13 +6854,13 @@
         <v>1954</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6839,13 +6875,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -6854,13 +6890,13 @@
         <v>1183</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6869,13 +6905,13 @@
         <v>1183</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>323</v>
+        <v>508</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,13 +6926,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>333</v>
+        <v>509</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6905,13 +6941,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6920,13 +6956,13 @@
         <v>1050</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,13 +6977,13 @@
         <v>1819</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6956,13 +6992,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -6971,13 +7007,13 @@
         <v>1819</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,13 +7028,13 @@
         <v>2182</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>360</v>
+        <v>517</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -7007,13 +7043,13 @@
         <v>2987</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>208</v>
+        <v>520</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -7022,13 +7058,13 @@
         <v>5169</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7096,13 +7132,13 @@
         <v>261702</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>172</v>
+        <v>526</v>
       </c>
       <c r="H40" s="7">
         <v>206</v>
@@ -7114,10 +7150,10 @@
         <v>172</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="M40" s="7">
         <v>447</v>
@@ -7126,13 +7162,13 @@
         <v>475630</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>521</v>
+        <v>316</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>304</v>
+        <v>529</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7147,13 +7183,13 @@
         <v>220350</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>387</v>
+        <v>531</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="H41" s="7">
         <v>141</v>
@@ -7162,13 +7198,13 @@
         <v>144741</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>525</v>
+        <v>484</v>
       </c>
       <c r="M41" s="7">
         <v>348</v>
@@ -7180,10 +7216,10 @@
         <v>114</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>526</v>
+        <v>369</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7198,13 +7234,13 @@
         <v>381873</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H42" s="7">
         <v>273</v>
@@ -7213,13 +7249,13 @@
         <v>272623</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="M42" s="7">
         <v>624</v>
@@ -7228,13 +7264,13 @@
         <v>654496</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,13 +7285,13 @@
         <v>284734</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>518</v>
+        <v>23</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="H43" s="7">
         <v>216</v>
@@ -7264,13 +7300,13 @@
         <v>220765</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>540</v>
+        <v>371</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>318</v>
+        <v>548</v>
       </c>
       <c r="M43" s="7">
         <v>487</v>
@@ -7279,13 +7315,13 @@
         <v>505499</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>542</v>
+        <v>280</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>543</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,13 +7336,13 @@
         <v>273663</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="H44" s="7">
         <v>177</v>
@@ -7315,13 +7351,13 @@
         <v>185115</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>547</v>
+        <v>116</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>548</v>
+        <v>416</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="M44" s="7">
         <v>430</v>
@@ -7330,13 +7366,13 @@
         <v>458778</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>126</v>
+        <v>554</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>386</v>
+        <v>555</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7414,7 +7450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919DD784-32A3-432C-935D-3B844554577D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5CF999-8CA9-47F9-8DF8-31FA72352F44}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7431,7 +7467,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7538,13 +7574,13 @@
         <v>8037</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -7553,13 +7589,13 @@
         <v>9765</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -7568,13 +7604,13 @@
         <v>17802</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>555</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7589,13 +7625,13 @@
         <v>2792</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -7604,13 +7640,13 @@
         <v>3751</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -7619,13 +7655,13 @@
         <v>6543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>565</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7640,13 +7676,13 @@
         <v>5217</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -7655,13 +7691,13 @@
         <v>5437</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -7670,13 +7706,13 @@
         <v>10654</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7691,13 +7727,13 @@
         <v>1537</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -7706,13 +7742,13 @@
         <v>2809</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>579</v>
+        <v>431</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -7721,13 +7757,13 @@
         <v>4347</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>583</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,13 +7778,13 @@
         <v>5001</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -7757,13 +7793,13 @@
         <v>6979</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -7772,13 +7808,13 @@
         <v>11981</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>589</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7846,13 +7882,13 @@
         <v>22643</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -7861,13 +7897,13 @@
         <v>30529</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -7876,13 +7912,13 @@
         <v>53172</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7897,13 +7933,13 @@
         <v>20360</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -7912,13 +7948,13 @@
         <v>16983</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -7927,13 +7963,13 @@
         <v>37343</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,13 +7984,13 @@
         <v>31889</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -7963,13 +7999,13 @@
         <v>19785</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -7978,13 +8014,13 @@
         <v>51674</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,13 +8035,13 @@
         <v>17079</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -8014,13 +8050,13 @@
         <v>15672</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>620</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -8029,10 +8065,10 @@
         <v>32752</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>125</v>
@@ -8050,13 +8086,13 @@
         <v>18772</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>624</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -8065,13 +8101,13 @@
         <v>7276</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>521</v>
+        <v>316</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -8080,13 +8116,13 @@
         <v>26048</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,13 +8190,13 @@
         <v>23412</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -8169,13 +8205,13 @@
         <v>32257</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -8184,13 +8220,13 @@
         <v>55669</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>633</v>
+        <v>174</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>636</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8205,13 +8241,13 @@
         <v>6770</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -8220,13 +8256,13 @@
         <v>14966</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>168</v>
+        <v>641</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -8235,13 +8271,13 @@
         <v>21736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8256,13 +8292,13 @@
         <v>31563</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -8271,13 +8307,13 @@
         <v>17856</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>441</v>
+        <v>649</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -8286,13 +8322,13 @@
         <v>49419</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>311</v>
+        <v>651</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8307,13 +8343,13 @@
         <v>23636</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -8322,13 +8358,13 @@
         <v>15298</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>652</v>
+        <v>325</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -8337,13 +8373,13 @@
         <v>38934</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>659</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,13 +8394,13 @@
         <v>23069</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -8373,13 +8409,13 @@
         <v>19517</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>659</v>
+        <v>482</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="M20" s="7">
         <v>49</v>
@@ -8388,13 +8424,13 @@
         <v>42586</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>662</v>
+        <v>553</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>301</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8450,7 +8486,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8462,13 +8498,13 @@
         <v>86645</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -8477,13 +8513,13 @@
         <v>39164</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -8492,13 +8528,13 @@
         <v>125808</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8513,13 +8549,13 @@
         <v>14448</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>75</v>
+        <v>676</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -8528,13 +8564,13 @@
         <v>9196</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="M23" s="7">
         <v>29</v>
@@ -8543,13 +8579,13 @@
         <v>23644</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>679</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8564,13 +8600,13 @@
         <v>32354</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>680</v>
+        <v>110</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="H24" s="7">
         <v>54</v>
@@ -8579,13 +8615,13 @@
         <v>32802</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="M24" s="7">
         <v>88</v>
@@ -8594,13 +8630,13 @@
         <v>65157</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>688</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8615,13 +8651,13 @@
         <v>19266</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>254</v>
+        <v>693</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -8630,13 +8666,13 @@
         <v>19168</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>102</v>
+        <v>696</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -8645,13 +8681,13 @@
         <v>38434</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>392</v>
+        <v>466</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8666,13 +8702,13 @@
         <v>28628</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>696</v>
+        <v>43</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -8681,13 +8717,13 @@
         <v>20349</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>698</v>
+        <v>377</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>97</v>
+        <v>701</v>
       </c>
       <c r="M26" s="7">
         <v>58</v>
@@ -8696,13 +8732,13 @@
         <v>48977</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>203</v>
+        <v>384</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8758,7 +8794,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8770,13 +8806,13 @@
         <v>17628</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -8785,13 +8821,13 @@
         <v>11692</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>704</v>
+        <v>402</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -8800,13 +8836,13 @@
         <v>29320</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8821,13 +8857,13 @@
         <v>4582</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -8836,13 +8872,13 @@
         <v>6567</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -8851,13 +8887,13 @@
         <v>11149</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>109</v>
+        <v>717</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8872,13 +8908,13 @@
         <v>19790</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -8887,13 +8923,13 @@
         <v>9988</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>719</v>
+        <v>136</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
@@ -8902,13 +8938,13 @@
         <v>29778</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>228</v>
+        <v>724</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8923,13 +8959,13 @@
         <v>14690</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -8938,13 +8974,13 @@
         <v>4644</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>79</v>
+        <v>730</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="M31" s="7">
         <v>27</v>
@@ -8953,13 +8989,13 @@
         <v>19334</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8974,13 +9010,13 @@
         <v>12646</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>468</v>
+        <v>737</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -8989,13 +9025,13 @@
         <v>7173</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>352</v>
+        <v>740</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="M32" s="7">
         <v>25</v>
@@ -9004,13 +9040,13 @@
         <v>19819</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9066,7 +9102,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9078,13 +9114,13 @@
         <v>607</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -9093,13 +9129,13 @@
         <v>2146</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>103</v>
+        <v>636</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>429</v>
+        <v>311</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -9108,13 +9144,13 @@
         <v>2753</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>579</v>
+        <v>431</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9129,13 +9165,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -9144,13 +9180,13 @@
         <v>1229</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -9159,13 +9195,13 @@
         <v>1229</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>313</v>
+        <v>752</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9180,13 +9216,13 @@
         <v>693</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -9195,13 +9231,13 @@
         <v>1399</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>546</v>
+        <v>756</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -9210,13 +9246,13 @@
         <v>2092</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>752</v>
+        <v>22</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9231,13 +9267,13 @@
         <v>717</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9246,13 +9282,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -9261,13 +9297,13 @@
         <v>717</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9282,13 +9318,13 @@
         <v>2443</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>420</v>
+        <v>766</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -9297,13 +9333,13 @@
         <v>1688</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -9312,13 +9348,13 @@
         <v>4131</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>763</v>
+        <v>129</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9386,13 +9422,13 @@
         <v>158971</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="H40" s="7">
         <v>158</v>
@@ -9401,13 +9437,13 @@
         <v>125553</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="M40" s="7">
         <v>249</v>
@@ -9416,13 +9452,13 @@
         <v>284524</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>478</v>
+        <v>778</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9437,13 +9473,13 @@
         <v>48952</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>368</v>
+        <v>221</v>
       </c>
       <c r="H41" s="7">
         <v>67</v>
@@ -9452,10 +9488,10 @@
         <v>52692</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>776</v>
+        <v>485</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>34</v>
@@ -9467,13 +9503,13 @@
         <v>101644</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9488,13 +9524,13 @@
         <v>121506</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>529</v>
+        <v>787</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="H42" s="7">
         <v>122</v>
@@ -9503,13 +9539,13 @@
         <v>87268</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="M42" s="7">
         <v>234</v>
@@ -9518,13 +9554,13 @@
         <v>208773</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>347</v>
+        <v>792</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>480</v>
+        <v>793</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9539,13 +9575,13 @@
         <v>76926</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>423</v>
+        <v>795</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>201</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="H43" s="7">
         <v>82</v>
@@ -9554,13 +9590,13 @@
         <v>57591</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>785</v>
+        <v>796</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>153</v>
+        <v>797</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>763</v>
+        <v>129</v>
       </c>
       <c r="M43" s="7">
         <v>157</v>
@@ -9569,13 +9605,13 @@
         <v>134517</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>118</v>
+        <v>394</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9590,13 +9626,13 @@
         <v>90559</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="H44" s="7">
         <v>80</v>
@@ -9605,13 +9641,13 @@
         <v>62983</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="M44" s="7">
         <v>158</v>
@@ -9620,13 +9656,13 @@
         <v>153542</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6707-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6707-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF54BF0A-35C5-4BE1-95A9-249B14BE0B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12874803-16A6-4938-8120-7B88F7195E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3266768C-DF95-42C7-830E-D7BBD6294F39}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{30B0C800-5DEF-4EA6-81DB-D250E7BAC431}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="801">
   <si>
     <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2012 (Tasa respuesta: 33,64%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -223,7 +223,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>16,7%</t>
@@ -355,7 +355,7 @@
     <t>32,49%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>13,57%</t>
@@ -481,7 +481,7 @@
     <t>34,33%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>15,9%</t>
@@ -616,7 +616,7 @@
     <t>36,69%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>9,0%</t>
@@ -748,7 +748,7 @@
     <t>50,81%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>0%</t>
@@ -799,6 +799,12 @@
     <t>84,82%</t>
   </si>
   <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>15,28%</t>
   </si>
   <si>
@@ -1519,16 +1525,22 @@
     <t>27,63%</t>
   </si>
   <si>
-    <t>68,21%</t>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>79,68%</t>
   </si>
   <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
   </si>
   <si>
     <t>22,79%</t>
@@ -1537,40 +1549,34 @@
     <t>82,18%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
   </si>
   <si>
     <t>80,05%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
   </si>
   <si>
     <t>57,56%</t>
@@ -1579,13 +1585,16 @@
     <t>16,54%</t>
   </si>
   <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
   </si>
   <si>
     <t>18,4%</t>
@@ -1696,754 +1705,742 @@
     <t>Población según si tiene influencia sobre la cantidad de trabajo que se le asigna en 2023 (Tasa respuesta: 10,35%)</t>
   </si>
   <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>18,38%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
   </si>
 </sst>
 </file>
@@ -2855,8 +2852,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F148E3C9-9E32-411F-BC5D-5283D2752B60}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046EA746-E97D-40E0-A467-1B2AC7F547B8}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4815,55 +4812,49 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>194</v>
-      </c>
-      <c r="D40" s="7">
-        <v>215746</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>254</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H40" s="7">
-        <v>168</v>
-      </c>
-      <c r="I40" s="7">
-        <v>180848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M40" s="7">
-        <v>362</v>
-      </c>
-      <c r="N40" s="7">
-        <v>396593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,49 +4863,43 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>110</v>
-      </c>
-      <c r="D41" s="7">
-        <v>118763</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>71</v>
+        <v>254</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H41" s="7">
-        <v>85</v>
-      </c>
-      <c r="I41" s="7">
-        <v>87947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="M41" s="7">
-        <v>195</v>
-      </c>
-      <c r="N41" s="7">
-        <v>206710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>21</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,49 +4908,43 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>304</v>
-      </c>
-      <c r="D42" s="7">
-        <v>316768</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="H42" s="7">
-        <v>183</v>
-      </c>
-      <c r="I42" s="7">
-        <v>198789</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="M42" s="7">
-        <v>487</v>
-      </c>
-      <c r="N42" s="7">
-        <v>515557</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,49 +4953,43 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>284</v>
-      </c>
-      <c r="D43" s="7">
-        <v>297967</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>47</v>
+        <v>254</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>44</v>
+        <v>254</v>
       </c>
       <c r="H43" s="7">
-        <v>170</v>
-      </c>
-      <c r="I43" s="7">
-        <v>183559</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="M43" s="7">
-        <v>454</v>
-      </c>
-      <c r="N43" s="7">
-        <v>481526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,49 +4998,43 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>433</v>
-      </c>
-      <c r="D44" s="7">
-        <v>462419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="H44" s="7">
-        <v>258</v>
-      </c>
-      <c r="I44" s="7">
-        <v>284575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="M44" s="7">
-        <v>691</v>
-      </c>
-      <c r="N44" s="7">
-        <v>746994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,63 +5043,366 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>194</v>
+      </c>
+      <c r="D46" s="7">
+        <v>215746</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H46" s="7">
+        <v>168</v>
+      </c>
+      <c r="I46" s="7">
+        <v>180848</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M46" s="7">
+        <v>362</v>
+      </c>
+      <c r="N46" s="7">
+        <v>396593</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>110</v>
+      </c>
+      <c r="D47" s="7">
+        <v>118763</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H47" s="7">
+        <v>85</v>
+      </c>
+      <c r="I47" s="7">
+        <v>87947</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M47" s="7">
+        <v>195</v>
+      </c>
+      <c r="N47" s="7">
+        <v>206710</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>304</v>
+      </c>
+      <c r="D48" s="7">
+        <v>316768</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H48" s="7">
+        <v>183</v>
+      </c>
+      <c r="I48" s="7">
+        <v>198789</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M48" s="7">
+        <v>487</v>
+      </c>
+      <c r="N48" s="7">
+        <v>515557</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>284</v>
+      </c>
+      <c r="D49" s="7">
+        <v>297967</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" s="7">
+        <v>170</v>
+      </c>
+      <c r="I49" s="7">
+        <v>183559</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M49" s="7">
+        <v>454</v>
+      </c>
+      <c r="N49" s="7">
+        <v>481526</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>433</v>
+      </c>
+      <c r="D50" s="7">
+        <v>462419</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H50" s="7">
+        <v>258</v>
+      </c>
+      <c r="I50" s="7">
+        <v>284575</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M50" s="7">
+        <v>691</v>
+      </c>
+      <c r="N50" s="7">
+        <v>746994</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1325</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1411662</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>864</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>935718</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>2189</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2347380</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>292</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5145,8 +5415,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B00B1EC-5C6A-4CA5-ABA5-6C66B7E3C6C4}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DCA3F8-C610-49AF-8FEF-959626C2D6B4}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5162,7 +5432,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5269,13 +5539,13 @@
         <v>21578</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -5284,13 +5554,13 @@
         <v>14303</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -5299,13 +5569,13 @@
         <v>35881</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5590,13 @@
         <v>14148</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -5335,10 +5605,10 @@
         <v>14557</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>97</v>
@@ -5350,13 +5620,13 @@
         <v>28705</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>73</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,10 +5644,10 @@
         <v>145</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -5386,13 +5656,13 @@
         <v>21931</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -5401,13 +5671,13 @@
         <v>43346</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,13 +5692,13 @@
         <v>14595</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5437,13 +5707,13 @@
         <v>23967</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -5452,13 +5722,13 @@
         <v>38562</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,10 +5743,10 @@
         <v>7374</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>154</v>
@@ -5488,13 +5758,13 @@
         <v>17096</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -5503,13 +5773,13 @@
         <v>24470</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5847,13 @@
         <v>67631</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -5592,13 +5862,13 @@
         <v>58631</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M10" s="7">
         <v>124</v>
@@ -5607,13 +5877,13 @@
         <v>126262</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5898,13 @@
         <v>52818</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -5643,10 +5913,10 @@
         <v>36514</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>12</v>
@@ -5658,13 +5928,13 @@
         <v>89332</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,13 +5949,13 @@
         <v>97002</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H12" s="7">
         <v>90</v>
@@ -5694,13 +5964,13 @@
         <v>85637</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M12" s="7">
         <v>182</v>
@@ -5709,13 +5979,13 @@
         <v>182639</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,13 +6000,13 @@
         <v>66673</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -5745,13 +6015,13 @@
         <v>49168</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M13" s="7">
         <v>117</v>
@@ -5760,13 +6030,13 @@
         <v>115841</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,13 +6051,13 @@
         <v>60061</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -5796,13 +6066,13 @@
         <v>43767</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M14" s="7">
         <v>99</v>
@@ -5811,13 +6081,13 @@
         <v>103828</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>122</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,13 +6155,13 @@
         <v>79345</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -5900,28 +6170,28 @@
         <v>64133</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>140</v>
       </c>
       <c r="N16" s="7">
-        <v>143479</v>
+        <v>143478</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,10 +6206,10 @@
         <v>78432</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>156</v>
@@ -5951,13 +6221,13 @@
         <v>39869</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>117</v>
@@ -5969,10 +6239,10 @@
         <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +6257,13 @@
         <v>127567</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H18" s="7">
         <v>79</v>
@@ -6002,13 +6272,13 @@
         <v>76622</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M18" s="7">
         <v>197</v>
@@ -6017,10 +6287,10 @@
         <v>204188</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>81</v>
@@ -6038,13 +6308,13 @@
         <v>92440</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
@@ -6053,13 +6323,13 @@
         <v>74510</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>164</v>
@@ -6068,13 +6338,13 @@
         <v>166950</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,10 +6359,10 @@
         <v>81804</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>95</v>
@@ -6104,13 +6374,13 @@
         <v>62280</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -6119,13 +6389,13 @@
         <v>144084</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6167,7 +6437,7 @@
         <v>756</v>
       </c>
       <c r="N21" s="7">
-        <v>777002</v>
+        <v>777001</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -6196,10 +6466,10 @@
         <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -6208,13 +6478,13 @@
         <v>53186</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>102</v>
@@ -6223,13 +6493,13 @@
         <v>114611</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6514,13 @@
         <v>53849</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -6262,10 +6532,10 @@
         <v>155</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>79</v>
@@ -6274,13 +6544,13 @@
         <v>87774</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6565,13 @@
         <v>91426</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H24" s="7">
         <v>61</v>
@@ -6310,10 +6580,10 @@
         <v>64832</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>183</v>
@@ -6325,13 +6595,13 @@
         <v>156258</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,13 +6616,13 @@
         <v>82488</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -6361,13 +6631,13 @@
         <v>48520</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>120</v>
@@ -6376,13 +6646,13 @@
         <v>131009</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,13 +6667,13 @@
         <v>78541</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>39</v>
@@ -6412,13 +6682,13 @@
         <v>42654</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M26" s="7">
         <v>110</v>
@@ -6427,13 +6697,13 @@
         <v>121195</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6501,13 +6771,13 @@
         <v>30789</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -6516,13 +6786,13 @@
         <v>22654</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M28" s="7">
         <v>45</v>
@@ -6531,10 +6801,10 @@
         <v>53443</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>103</v>
@@ -6552,13 +6822,13 @@
         <v>21103</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -6567,10 +6837,10 @@
         <v>18693</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>182</v>
@@ -6582,13 +6852,13 @@
         <v>39796</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,10 +6873,10 @@
         <v>43413</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>146</v>
@@ -6618,13 +6888,13 @@
         <v>23602</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M30" s="7">
         <v>58</v>
@@ -6633,13 +6903,13 @@
         <v>67014</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,13 +6924,13 @@
         <v>26719</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H31" s="7">
         <v>21</v>
@@ -6669,13 +6939,13 @@
         <v>24600</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M31" s="7">
         <v>45</v>
@@ -6684,13 +6954,13 @@
         <v>51319</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,13 +6975,13 @@
         <v>43702</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
@@ -6720,13 +6990,13 @@
         <v>16330</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
@@ -6735,13 +7005,13 @@
         <v>60032</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6809,13 +7079,13 @@
         <v>934</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>336</v>
+        <v>495</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>206</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6824,13 +7094,13 @@
         <v>1020</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>206</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -6839,13 +7109,13 @@
         <v>1954</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>206</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6866,7 +7136,7 @@
         <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>500</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -6875,13 +7145,13 @@
         <v>1183</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>206</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6890,13 +7160,13 @@
         <v>1183</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>206</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6911,13 +7181,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>501</v>
+        <v>272</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>206</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6932,7 +7202,7 @@
         <v>237</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6941,13 +7211,13 @@
         <v>1050</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>264</v>
+        <v>506</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>206</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6956,19 +7226,19 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>1819</v>
+        <v>1024</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>206</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6983,22 +7253,22 @@
         <v>237</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="M37" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37" s="7">
-        <v>1819</v>
+        <v>1024</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>206</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7013,13 +7283,13 @@
         <v>2182</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>206</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -7028,10 +7298,10 @@
         <v>2987</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>241</v>
@@ -7043,13 +7313,13 @@
         <v>5169</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>514</v>
+        <v>379</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7058,10 +7328,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="7">
-        <v>5985</v>
+        <v>5190</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -7088,10 +7358,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N39" s="7">
-        <v>11176</v>
+        <v>10381</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -7105,55 +7375,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>261702</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>516</v>
+        <v>206</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>341</v>
-      </c>
       <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="I40" s="7">
-        <v>213928</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="M40" s="7">
-        <v>447</v>
-      </c>
-      <c r="N40" s="7">
-        <v>475630</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>520</v>
-      </c>
       <c r="P40" s="7" t="s">
-        <v>521</v>
+        <v>237</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7162,49 +7430,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>220350</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>523</v>
+        <v>237</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>322</v>
+        <v>517</v>
       </c>
       <c r="H41" s="7">
-        <v>141</v>
-      </c>
-      <c r="I41" s="7">
-        <v>144741</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>524</v>
+        <v>254</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>525</v>
+        <v>254</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>526</v>
+        <v>254</v>
       </c>
       <c r="M41" s="7">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>365091</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>527</v>
+        <v>237</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>402</v>
+        <v>517</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7213,49 +7479,47 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>381873</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>528</v>
+        <v>237</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="H42" s="7">
-        <v>273</v>
-      </c>
-      <c r="I42" s="7">
-        <v>272623</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>530</v>
+        <v>254</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>531</v>
+        <v>254</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>532</v>
+        <v>254</v>
       </c>
       <c r="M42" s="7">
-        <v>624</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>654496</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>533</v>
+        <v>206</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>534</v>
+        <v>237</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7264,49 +7528,47 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>271</v>
+        <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>284734</v>
+        <v>795</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>536</v>
+        <v>241</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>538</v>
+        <v>60</v>
       </c>
       <c r="H43" s="7">
-        <v>216</v>
-      </c>
-      <c r="I43" s="7">
-        <v>220765</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>539</v>
+        <v>254</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>540</v>
+        <v>254</v>
       </c>
       <c r="M43" s="7">
-        <v>487</v>
+        <v>1</v>
       </c>
       <c r="N43" s="7">
-        <v>505499</v>
+        <v>795</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>541</v>
+        <v>241</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>422</v>
+        <v>518</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>542</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,49 +7577,47 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>273663</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>543</v>
+        <v>206</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>544</v>
+        <v>237</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>447</v>
+        <v>517</v>
       </c>
       <c r="H44" s="7">
-        <v>177</v>
-      </c>
-      <c r="I44" s="7">
-        <v>185115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>545</v>
+        <v>254</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>546</v>
+        <v>254</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>547</v>
+        <v>254</v>
       </c>
       <c r="M44" s="7">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>458778</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>548</v>
+        <v>206</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>549</v>
+        <v>237</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7366,63 +7626,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>795</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>795</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>241</v>
+      </c>
+      <c r="D46" s="7">
+        <v>261702</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H46" s="7">
+        <v>206</v>
+      </c>
+      <c r="I46" s="7">
+        <v>213928</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="M46" s="7">
+        <v>447</v>
+      </c>
+      <c r="N46" s="7">
+        <v>475630</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>207</v>
+      </c>
+      <c r="D47" s="7">
+        <v>220350</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H47" s="7">
+        <v>141</v>
+      </c>
+      <c r="I47" s="7">
+        <v>144741</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="M47" s="7">
+        <v>348</v>
+      </c>
+      <c r="N47" s="7">
+        <v>365091</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>351</v>
+      </c>
+      <c r="D48" s="7">
+        <v>381873</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="H48" s="7">
+        <v>273</v>
+      </c>
+      <c r="I48" s="7">
+        <v>272623</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="M48" s="7">
+        <v>624</v>
+      </c>
+      <c r="N48" s="7">
+        <v>654496</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>271</v>
+      </c>
+      <c r="D49" s="7">
+        <v>284734</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="H49" s="7">
+        <v>216</v>
+      </c>
+      <c r="I49" s="7">
+        <v>220765</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="M49" s="7">
+        <v>487</v>
+      </c>
+      <c r="N49" s="7">
+        <v>505499</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>253</v>
+      </c>
+      <c r="D50" s="7">
+        <v>273663</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H50" s="7">
+        <v>177</v>
+      </c>
+      <c r="I50" s="7">
+        <v>185115</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="M50" s="7">
+        <v>430</v>
+      </c>
+      <c r="N50" s="7">
+        <v>458778</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1323</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1422322</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>1013</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>1037172</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>2336</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2459494</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>292</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7435,8 +8002,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16711902-5678-4B30-9AB5-B7927A2A6770}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E962A0A-ECD0-4742-88FA-6FA66D39D1EA}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7452,7 +8019,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7556,46 +8123,46 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>8037</v>
+        <v>10021</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>9765</v>
+        <v>8566</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>555</v>
+        <v>245</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>17802</v>
+        <v>18587</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7607,46 +8174,46 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>2792</v>
+        <v>2280</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>3751</v>
+        <v>3375</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>451</v>
+        <v>565</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>6543</v>
+        <v>5655</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7658,46 +8225,46 @@
         <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>5217</v>
+        <v>4756</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>5437</v>
+        <v>4771</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>10654</v>
+        <v>9527</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7709,46 +8276,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>577</v>
+        <v>510</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>2809</v>
+        <v>2442</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>4347</v>
+        <v>3975</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>95</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7760,46 +8327,46 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>5001</v>
+        <v>4802</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>283</v>
+        <v>586</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>6979</v>
+        <v>5996</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>11981</v>
+        <v>10798</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>587</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,7 +8378,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>22585</v>
+        <v>23392</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -7826,7 +8393,7 @@
         <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>28742</v>
+        <v>25150</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -7841,7 +8408,7 @@
         <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>51327</v>
+        <v>48542</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -7864,46 +8431,46 @@
         <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>22643</v>
+        <v>21113</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
       </c>
       <c r="I10" s="7">
-        <v>30529</v>
+        <v>27678</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>413</v>
+        <v>597</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
       </c>
       <c r="N10" s="7">
-        <v>53172</v>
+        <v>48790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>595</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7915,46 +8482,46 @@
         <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>20360</v>
+        <v>18685</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>597</v>
+        <v>372</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>16983</v>
+        <v>14993</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>78</v>
+        <v>604</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
       </c>
       <c r="N11" s="7">
-        <v>37343</v>
+        <v>33679</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>454</v>
+        <v>540</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>417</v>
+        <v>606</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,46 +8533,46 @@
         <v>23</v>
       </c>
       <c r="D12" s="7">
-        <v>31889</v>
+        <v>31559</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>127</v>
+        <v>607</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>407</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
       </c>
       <c r="I12" s="7">
-        <v>19785</v>
+        <v>17377</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>48</v>
+        <v>610</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
       </c>
       <c r="N12" s="7">
-        <v>51674</v>
+        <v>48935</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>606</v>
+        <v>126</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,46 +8584,46 @@
         <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>17079</v>
+        <v>16710</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>487</v>
+        <v>614</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>463</v>
+        <v>615</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>15672</v>
+        <v>14695</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>617</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
       </c>
       <c r="N13" s="7">
-        <v>32752</v>
+        <v>31405</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8068,46 +8635,46 @@
         <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>18772</v>
+        <v>18986</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>623</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>7276</v>
+        <v>6671</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>616</v>
+        <v>583</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>627</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
       </c>
       <c r="N14" s="7">
-        <v>26048</v>
+        <v>25657</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>619</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>369</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8119,7 +8686,7 @@
         <v>70</v>
       </c>
       <c r="D15" s="7">
-        <v>110743</v>
+        <v>107053</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -8134,7 +8701,7 @@
         <v>87</v>
       </c>
       <c r="I15" s="7">
-        <v>90246</v>
+        <v>81414</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -8149,7 +8716,7 @@
         <v>157</v>
       </c>
       <c r="N15" s="7">
-        <v>200989</v>
+        <v>188467</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -8172,46 +8739,46 @@
         <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>23412</v>
+        <v>22535</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>480</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
       </c>
       <c r="I16" s="7">
-        <v>32257</v>
+        <v>29105</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>243</v>
+        <v>632</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
       </c>
       <c r="N16" s="7">
-        <v>55669</v>
+        <v>51640</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>624</v>
+        <v>36</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8223,46 +8790,46 @@
         <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>6770</v>
+        <v>6298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
       </c>
       <c r="I17" s="7">
-        <v>14966</v>
+        <v>13501</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>642</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
       </c>
       <c r="N17" s="7">
-        <v>21736</v>
+        <v>19799</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>632</v>
+        <v>506</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>24</v>
+        <v>643</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8274,46 +8841,46 @@
         <v>30</v>
       </c>
       <c r="D18" s="7">
-        <v>31563</v>
+        <v>30580</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
       </c>
       <c r="I18" s="7">
-        <v>17856</v>
+        <v>17001</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>537</v>
+        <v>647</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
       </c>
       <c r="N18" s="7">
-        <v>49419</v>
+        <v>47581</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>638</v>
+        <v>276</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8325,46 +8892,46 @@
         <v>21</v>
       </c>
       <c r="D19" s="7">
-        <v>23636</v>
+        <v>21746</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>641</v>
+        <v>64</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
       </c>
       <c r="I19" s="7">
-        <v>15298</v>
+        <v>14409</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>643</v>
+        <v>338</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>644</v>
+        <v>506</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>372</v>
+        <v>654</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
       </c>
       <c r="N19" s="7">
-        <v>38934</v>
+        <v>36155</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>645</v>
+        <v>385</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8376,46 +8943,46 @@
         <v>22</v>
       </c>
       <c r="D20" s="7">
-        <v>23069</v>
+        <v>22225</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>655</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
       </c>
       <c r="I20" s="7">
-        <v>19517</v>
+        <v>18321</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>650</v>
+        <v>454</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>651</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>652</v>
+        <v>84</v>
       </c>
       <c r="M20" s="7">
         <v>49</v>
       </c>
       <c r="N20" s="7">
-        <v>42586</v>
+        <v>40546</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>654</v>
+        <v>489</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>660</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8427,7 +8994,7 @@
         <v>103</v>
       </c>
       <c r="D21" s="7">
-        <v>108451</v>
+        <v>103383</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -8442,7 +9009,7 @@
         <v>138</v>
       </c>
       <c r="I21" s="7">
-        <v>99894</v>
+        <v>92337</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -8457,7 +9024,7 @@
         <v>241</v>
       </c>
       <c r="N21" s="7">
-        <v>208344</v>
+        <v>195720</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -8480,46 +9047,46 @@
         <v>31</v>
       </c>
       <c r="D22" s="7">
-        <v>86645</v>
+        <v>277348</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
       </c>
       <c r="I22" s="7">
-        <v>39164</v>
+        <v>35627</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
       </c>
       <c r="N22" s="7">
-        <v>125808</v>
+        <v>312975</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8531,46 +9098,46 @@
         <v>14</v>
       </c>
       <c r="D23" s="7">
-        <v>14448</v>
+        <v>12896</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
       </c>
       <c r="I23" s="7">
-        <v>9196</v>
+        <v>8562</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>674</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="M23" s="7">
         <v>29</v>
       </c>
       <c r="N23" s="7">
-        <v>23644</v>
+        <v>21459</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8582,46 +9149,46 @@
         <v>34</v>
       </c>
       <c r="D24" s="7">
-        <v>32354</v>
+        <v>30945</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>310</v>
+        <v>679</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="H24" s="7">
         <v>54</v>
       </c>
       <c r="I24" s="7">
-        <v>32802</v>
+        <v>30237</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>436</v>
+        <v>683</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="M24" s="7">
         <v>88</v>
       </c>
       <c r="N24" s="7">
-        <v>65157</v>
+        <v>61182</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8633,46 +9200,46 @@
         <v>22</v>
       </c>
       <c r="D25" s="7">
-        <v>19266</v>
+        <v>18988</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
       </c>
       <c r="I25" s="7">
-        <v>19168</v>
+        <v>18437</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>683</v>
+        <v>100</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
       </c>
       <c r="N25" s="7">
-        <v>38434</v>
+        <v>37425</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>462</v>
+        <v>693</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8684,46 +9251,46 @@
         <v>29</v>
       </c>
       <c r="D26" s="7">
-        <v>28628</v>
+        <v>26993</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
       </c>
       <c r="I26" s="7">
-        <v>20349</v>
+        <v>18716</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="M26" s="7">
         <v>58</v>
       </c>
       <c r="N26" s="7">
-        <v>48977</v>
+        <v>45709</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>693</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>338</v>
+        <v>703</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8735,7 +9302,7 @@
         <v>130</v>
       </c>
       <c r="D27" s="7">
-        <v>181341</v>
+        <v>367170</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -8750,7 +9317,7 @@
         <v>187</v>
       </c>
       <c r="I27" s="7">
-        <v>120679</v>
+        <v>111580</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -8765,7 +9332,7 @@
         <v>317</v>
       </c>
       <c r="N27" s="7">
-        <v>302020</v>
+        <v>478750</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -8788,46 +9355,46 @@
         <v>18</v>
       </c>
       <c r="D28" s="7">
-        <v>17628</v>
+        <v>16229</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>415</v>
+        <v>364</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
       </c>
       <c r="I28" s="7">
-        <v>11692</v>
+        <v>10600</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>696</v>
+        <v>127</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>697</v>
+        <v>623</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
       </c>
       <c r="N28" s="7">
-        <v>29320</v>
+        <v>26829</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>699</v>
+        <v>226</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8839,46 +9406,46 @@
         <v>5</v>
       </c>
       <c r="D29" s="7">
-        <v>4582</v>
+        <v>4059</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>6567</v>
+        <v>5968</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>402</v>
+        <v>712</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
       </c>
       <c r="N29" s="7">
-        <v>11149</v>
+        <v>10027</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>215</v>
+        <v>509</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8890,46 +9457,46 @@
         <v>20</v>
       </c>
       <c r="D30" s="7">
-        <v>19790</v>
+        <v>18383</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>710</v>
+        <v>627</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
       </c>
       <c r="I30" s="7">
-        <v>9988</v>
+        <v>9002</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>712</v>
+        <v>339</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
       </c>
       <c r="N30" s="7">
-        <v>29778</v>
+        <v>27385</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>67</v>
+        <v>721</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>276</v>
+        <v>403</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8941,46 +9508,46 @@
         <v>18</v>
       </c>
       <c r="D31" s="7">
-        <v>14690</v>
+        <v>14293</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
       </c>
       <c r="I31" s="7">
-        <v>4644</v>
+        <v>4541</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>603</v>
+        <v>728</v>
       </c>
       <c r="M31" s="7">
         <v>27</v>
       </c>
       <c r="N31" s="7">
-        <v>19334</v>
+        <v>18834</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>722</v>
+        <v>675</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8992,46 +9559,46 @@
         <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>12646</v>
+        <v>11873</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
       </c>
       <c r="I32" s="7">
-        <v>7173</v>
+        <v>6689</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>729</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>25</v>
       </c>
       <c r="N32" s="7">
-        <v>19819</v>
+        <v>18562</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>697</v>
+        <v>736</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>730</v>
+        <v>606</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>129</v>
+        <v>737</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9043,7 +9610,7 @@
         <v>73</v>
       </c>
       <c r="D33" s="7">
-        <v>69336</v>
+        <v>64838</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>60</v>
@@ -9058,7 +9625,7 @@
         <v>66</v>
       </c>
       <c r="I33" s="7">
-        <v>40063</v>
+        <v>36800</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -9073,7 +9640,7 @@
         <v>139</v>
       </c>
       <c r="N33" s="7">
-        <v>109399</v>
+        <v>101637</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -9096,46 +9663,46 @@
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>206</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
       </c>
       <c r="I34" s="7">
-        <v>2146</v>
+        <v>1994</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>734</v>
+        <v>556</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
       </c>
       <c r="N34" s="7">
-        <v>2753</v>
+        <v>2578</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>578</v>
+        <v>743</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9156,37 +9723,37 @@
         <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>738</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
       </c>
       <c r="I35" s="7">
-        <v>1229</v>
+        <v>1148</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>206</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
       </c>
       <c r="N35" s="7">
-        <v>1229</v>
+        <v>1148</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>206</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>742</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9198,46 +9765,46 @@
         <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>693</v>
+        <v>664</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>206</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
       </c>
       <c r="I36" s="7">
-        <v>1399</v>
+        <v>1350</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
       </c>
       <c r="N36" s="7">
-        <v>2092</v>
+        <v>2013</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>748</v>
+        <v>80</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9249,16 +9816,16 @@
         <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>717</v>
+        <v>784</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>751</v>
+        <v>285</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>206</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9273,22 +9840,22 @@
         <v>237</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
       </c>
       <c r="N37" s="7">
-        <v>717</v>
+        <v>784</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>206</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9297,49 +9864,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" s="7">
-        <v>2443</v>
+        <v>1510</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>89</v>
+        <v>760</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>241</v>
+        <v>761</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
       </c>
       <c r="I38" s="7">
-        <v>1688</v>
+        <v>1581</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>757</v>
+        <v>51</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="M38" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N38" s="7">
-        <v>4131</v>
+        <v>3092</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9348,10 +9915,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="7">
-        <v>4460</v>
+        <v>3542</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -9366,7 +9933,7 @@
         <v>12</v>
       </c>
       <c r="I39" s="7">
-        <v>6462</v>
+        <v>6073</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -9378,10 +9945,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N39" s="7">
-        <v>10922</v>
+        <v>9615</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -9395,55 +9962,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>158971</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>763</v>
+        <v>206</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>764</v>
+        <v>237</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>765</v>
+        <v>517</v>
       </c>
       <c r="H40" s="7">
-        <v>158</v>
-      </c>
-      <c r="I40" s="7">
-        <v>125553</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>766</v>
+        <v>254</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>767</v>
+        <v>254</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>768</v>
+        <v>254</v>
       </c>
       <c r="M40" s="7">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="N40" s="7">
-        <v>284524</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>769</v>
+        <v>206</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>770</v>
+        <v>237</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>771</v>
+        <v>517</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9452,49 +10017,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>48952</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>772</v>
+        <v>206</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>773</v>
+        <v>237</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>774</v>
+        <v>517</v>
       </c>
       <c r="H41" s="7">
-        <v>67</v>
-      </c>
-      <c r="I41" s="7">
-        <v>52692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>775</v>
+        <v>254</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>776</v>
+        <v>254</v>
       </c>
       <c r="M41" s="7">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>101644</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>777</v>
+        <v>206</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>778</v>
+        <v>237</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>779</v>
+        <v>517</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9503,49 +10066,47 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>121506</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>780</v>
+        <v>206</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>781</v>
+        <v>237</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>782</v>
+        <v>517</v>
       </c>
       <c r="H42" s="7">
-        <v>122</v>
-      </c>
-      <c r="I42" s="7">
-        <v>87268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>783</v>
+        <v>254</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>784</v>
+        <v>254</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>785</v>
+        <v>254</v>
       </c>
       <c r="M42" s="7">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>208773</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>786</v>
+        <v>206</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>787</v>
+        <v>237</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9554,49 +10115,47 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>76926</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>788</v>
+        <v>206</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>789</v>
+        <v>237</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>790</v>
+        <v>517</v>
       </c>
       <c r="H43" s="7">
-        <v>82</v>
-      </c>
-      <c r="I43" s="7">
-        <v>57591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>791</v>
+        <v>254</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>792</v>
+        <v>254</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>680</v>
+        <v>254</v>
       </c>
       <c r="M43" s="7">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>134517</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>636</v>
+        <v>237</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>793</v>
+        <v>517</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9605,49 +10164,47 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>90559</v>
+        <v>746</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>794</v>
+        <v>241</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>795</v>
+        <v>518</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>796</v>
+        <v>60</v>
       </c>
       <c r="H44" s="7">
-        <v>80</v>
-      </c>
-      <c r="I44" s="7">
-        <v>62983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>797</v>
+        <v>254</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>798</v>
+        <v>254</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>799</v>
+        <v>254</v>
       </c>
       <c r="M44" s="7">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>153542</v>
+        <v>746</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>800</v>
+        <v>518</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>801</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9656,63 +10213,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>746</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>746</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>91</v>
+      </c>
+      <c r="D46" s="7">
+        <v>347828</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="H46" s="7">
+        <v>158</v>
+      </c>
+      <c r="I46" s="7">
+        <v>113570</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="M46" s="7">
+        <v>249</v>
+      </c>
+      <c r="N46" s="7">
+        <v>461399</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>40</v>
+      </c>
+      <c r="D47" s="7">
+        <v>44219</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="H47" s="7">
+        <v>67</v>
+      </c>
+      <c r="I47" s="7">
+        <v>47548</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="M47" s="7">
+        <v>107</v>
+      </c>
+      <c r="N47" s="7">
+        <v>91767</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>112</v>
+      </c>
+      <c r="D48" s="7">
+        <v>116886</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="H48" s="7">
+        <v>122</v>
+      </c>
+      <c r="I48" s="7">
+        <v>79738</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="M48" s="7">
+        <v>234</v>
+      </c>
+      <c r="N48" s="7">
+        <v>196624</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>75</v>
+      </c>
+      <c r="D49" s="7">
+        <v>74054</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="H49" s="7">
+        <v>82</v>
+      </c>
+      <c r="I49" s="7">
+        <v>54524</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="M49" s="7">
+        <v>157</v>
+      </c>
+      <c r="N49" s="7">
+        <v>128578</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>78</v>
+      </c>
+      <c r="D50" s="7">
+        <v>87135</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="H50" s="7">
+        <v>80</v>
+      </c>
+      <c r="I50" s="7">
+        <v>57974</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="M50" s="7">
+        <v>158</v>
+      </c>
+      <c r="N50" s="7">
+        <v>145110</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>396</v>
       </c>
-      <c r="D45" s="7">
-        <v>496914</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>670123</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>509</v>
       </c>
-      <c r="I45" s="7">
-        <v>386087</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>353354</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>905</v>
       </c>
-      <c r="N45" s="7">
-        <v>883001</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>292</v>
+      <c r="N51" s="7">
+        <v>1023477</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
